--- a/artfynd/A 39569-2022.xlsx
+++ b/artfynd/A 39569-2022.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111526230</v>
+        <v>111528636</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>5113</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,42 +814,47 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>100526</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Berget, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>459138.32674584</v>
+        <v>459136.55025383</v>
       </c>
       <c r="R3" t="n">
-        <v>6374187.115417362</v>
+        <v>6374171.016094602</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -915,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111528636</v>
+        <v>111526230</v>
       </c>
       <c r="B4" t="n">
-        <v>5113</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,47 +932,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100526</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Berget, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>459136.55025383</v>
+        <v>459138.32674584</v>
       </c>
       <c r="R4" t="n">
-        <v>6374171.016094602</v>
+        <v>6374187.115417362</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>

--- a/artfynd/A 39569-2022.xlsx
+++ b/artfynd/A 39569-2022.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111528636</v>
+        <v>111526230</v>
       </c>
       <c r="B3" t="n">
-        <v>5113</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,47 +814,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100526</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Berget, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>459136.55025383</v>
+        <v>459138.32674584</v>
       </c>
       <c r="R3" t="n">
-        <v>6374171.016094602</v>
+        <v>6374187.115417362</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -920,10 +915,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111526230</v>
+        <v>111528636</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>5113</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,42 +927,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>100526</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Berget, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>459138.32674584</v>
+        <v>459136.55025383</v>
       </c>
       <c r="R4" t="n">
-        <v>6374187.115417362</v>
+        <v>6374171.016094602</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
